--- a/public/files/Yerkin's Transcript.xlsx
+++ b/public/files/Yerkin's Transcript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yerkintulenov/programming/web/portfolio/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yerkintulenov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13253D-7085-E94B-877A-5751E19AC032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB4B573-E827-5748-95D5-345CE061DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="4400" windowWidth="36000" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="View My Academic Progress" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="118">
   <si>
     <t>Requirement</t>
   </si>
@@ -202,7 +202,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>APSC_O 258</t>
+    <t>APSC_O 258 or CMPE_O 246</t>
   </si>
   <si>
     <t>APSC_O 258 - Applications of Engineering Design</t>
@@ -319,10 +319,7 @@
     <t>ENGR_O 413</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>ENGR_O 413 - Law and Ethics for Engineers (In Progress)</t>
+    <t>ENGR_O 413 - Law and Ethics for Engineers</t>
   </si>
   <si>
     <t>2024-25 Winter Term 2 (UBC-O)</t>
@@ -331,7 +328,7 @@
     <t>ENGR_O 499</t>
   </si>
   <si>
-    <t>ENGR_O 499 - Engineering Capstone Design Project (In Progress)</t>
+    <t>ENGR_O 499 - Engineering Capstone Design Project</t>
   </si>
   <si>
     <t>2024-25 Winter Term 1 (UBC-O)</t>
@@ -355,13 +352,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>ENGR_O 474 - Analog Integrated Circuits (In Progress)</t>
+    <t>ENGR_O 474 - Analog Integrated Circuits</t>
   </si>
   <si>
     <t>ENGR_O 458 - Power Electronics</t>
   </si>
   <si>
-    <t>ENGR_O 470 - Microwave Engineering (In Progress)</t>
+    <t>ENGR_O 470 - Microwave Engineering</t>
   </si>
   <si>
     <t>12 Credits of Technical Electives (Override Assigned)</t>
@@ -373,10 +370,10 @@
     <t>ENGR_O 418 - Applied Machine Learning for Engineers</t>
   </si>
   <si>
-    <t>ENGR_O 498 - Special Topics in Engineering (In Progress)</t>
-  </si>
-  <si>
-    <t>ENGR_O 453 - Internet of Things (In Progress)</t>
+    <t>ENGR_O 498 - Special Topics in Engineering</t>
+  </si>
+  <si>
+    <t>ENGR_O 453 - Internet of Things</t>
   </si>
 </sst>
 </file>
@@ -769,7 +766,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -802,55 +799,59 @@
     </row>
     <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -861,17 +862,17 @@
     </row>
     <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -882,36 +883,38 @@
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -922,57 +925,59 @@
     </row>
     <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -981,43 +986,47 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">

--- a/public/files/Yerkin's Transcript.xlsx
+++ b/public/files/Yerkin's Transcript.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yerkintulenov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yerkintulenov/programming/web/portfolio/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB4B573-E827-5748-95D5-345CE061DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C95C8-90CC-5D42-A3B1-7523CF886713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="4400" windowWidth="36000" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="View My Academic Progress" sheetId="1" r:id="rId1"/>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -782,19 +782,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -804,19 +804,19 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -825,19 +825,19 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -846,19 +846,19 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -867,19 +867,19 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -888,19 +888,19 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -909,19 +909,19 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -930,19 +930,19 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -951,19 +951,19 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -972,19 +972,19 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -993,19 +993,19 @@
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1014,19 +1014,19 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1035,19 +1035,19 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -1056,19 +1056,19 @@
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -1077,19 +1077,19 @@
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1098,19 +1098,19 @@
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
@@ -1119,19 +1119,19 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
@@ -1140,19 +1140,19 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1161,19 +1161,19 @@
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1182,19 +1182,19 @@
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1203,19 +1203,19 @@
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1224,19 +1224,19 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1245,19 +1245,19 @@
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1266,19 +1266,19 @@
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1287,19 +1287,19 @@
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -1308,19 +1308,19 @@
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -1329,19 +1329,19 @@
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
@@ -1350,19 +1350,19 @@
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1371,19 +1371,19 @@
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1392,19 +1392,19 @@
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -1413,19 +1413,19 @@
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
@@ -1434,19 +1434,19 @@
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
@@ -1455,19 +1455,19 @@
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
@@ -1476,19 +1476,19 @@
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -1497,19 +1497,19 @@
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
@@ -1518,19 +1518,19 @@
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
@@ -1539,19 +1539,19 @@
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1560,19 +1560,19 @@
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1581,19 +1581,19 @@
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -1602,19 +1602,19 @@
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
@@ -1623,19 +1623,19 @@
       <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D41" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -1644,19 +1644,19 @@
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
@@ -1665,19 +1665,19 @@
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1686,19 +1686,19 @@
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -1707,17 +1707,17 @@
       <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
@@ -1726,17 +1726,17 @@
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
@@ -1745,19 +1745,19 @@
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1766,19 +1766,19 @@
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
